--- a/Code/Results/Cases/Case_4_228/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_228/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.60198455438359</v>
+        <v>14.55576705260431</v>
       </c>
       <c r="C2">
-        <v>17.08308697021358</v>
+        <v>9.715555350721269</v>
       </c>
       <c r="D2">
-        <v>7.302568370480021</v>
+        <v>5.967597785388032</v>
       </c>
       <c r="E2">
-        <v>30.20759099116842</v>
+        <v>16.53464518793436</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.037491246043868</v>
+        <v>3.605956699978702</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.54629345381439</v>
+        <v>16.15533835233212</v>
       </c>
       <c r="O2">
-        <v>18.42634515456968</v>
+        <v>20.97852255951449</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.98612928260015</v>
+        <v>13.8873474131362</v>
       </c>
       <c r="C3">
-        <v>15.98217779377619</v>
+        <v>9.131014552356973</v>
       </c>
       <c r="D3">
-        <v>6.786687912067863</v>
+        <v>5.846138528907759</v>
       </c>
       <c r="E3">
-        <v>27.96912117405645</v>
+        <v>15.59184432214095</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.045776088082311</v>
+        <v>3.608895072387722</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.78115860467417</v>
+        <v>16.2213662345871</v>
       </c>
       <c r="O3">
-        <v>17.63913522663221</v>
+        <v>20.91500924417518</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.93964729416821</v>
+        <v>13.46258790654218</v>
       </c>
       <c r="C4">
-        <v>15.27107356428986</v>
+        <v>8.750897233833163</v>
       </c>
       <c r="D4">
-        <v>6.453411615951205</v>
+        <v>5.772161414271669</v>
       </c>
       <c r="E4">
-        <v>26.53463436804087</v>
+        <v>14.9882413140507</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.050976649669718</v>
+        <v>3.610791680355224</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.9279417704432</v>
+        <v>16.26382801139703</v>
       </c>
       <c r="O4">
-        <v>17.16560002101739</v>
+        <v>20.88358147671162</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.49938219755855</v>
+        <v>13.28613472166723</v>
       </c>
       <c r="C5">
-        <v>14.9724040642457</v>
+        <v>8.59069028053313</v>
       </c>
       <c r="D5">
-        <v>6.313387302142102</v>
+        <v>5.742212253355198</v>
       </c>
       <c r="E5">
-        <v>25.93451323761563</v>
+        <v>14.73632155765062</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.053126454659057</v>
+        <v>3.611587895181681</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10.98844407027671</v>
+        <v>16.28161604525777</v>
       </c>
       <c r="O5">
-        <v>16.97525235791538</v>
+        <v>20.87268113028909</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.42543788397701</v>
+        <v>13.25663978220878</v>
       </c>
       <c r="C6">
-        <v>14.92227222541614</v>
+        <v>8.563768524901469</v>
       </c>
       <c r="D6">
-        <v>6.289880406361989</v>
+        <v>5.737252486834846</v>
       </c>
       <c r="E6">
-        <v>25.83391143799389</v>
+        <v>14.69414023316585</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.053485326668854</v>
+        <v>3.611721517808098</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10.99853303413569</v>
+        <v>16.28459904596025</v>
       </c>
       <c r="O6">
-        <v>16.94380852644409</v>
+        <v>20.87098633863554</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.93376585515474</v>
+        <v>13.46022144977527</v>
       </c>
       <c r="C7">
-        <v>15.26708164789828</v>
+        <v>8.748758069028357</v>
       </c>
       <c r="D7">
-        <v>6.451540324200096</v>
+        <v>5.771756649678003</v>
       </c>
       <c r="E7">
-        <v>26.52660448520302</v>
+        <v>14.98486751869946</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.051005516582211</v>
+        <v>3.610802323802448</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.9287548935213</v>
+        <v>16.26406594315362</v>
       </c>
       <c r="O7">
-        <v>17.163022091144</v>
+        <v>20.88342674846652</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.05602193197787</v>
+        <v>14.32841151812921</v>
       </c>
       <c r="C8">
-        <v>16.710749566349</v>
+        <v>9.518420395404013</v>
       </c>
       <c r="D8">
-        <v>7.128087292415615</v>
+        <v>5.925621914877119</v>
       </c>
       <c r="E8">
-        <v>29.4479459352402</v>
+        <v>16.21484378950503</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.040325505643816</v>
+        <v>3.606950718937489</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.62676500999318</v>
+        <v>16.17770716320013</v>
       </c>
       <c r="O8">
-        <v>18.15296245262711</v>
+        <v>20.95505488076402</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.79397164794124</v>
+        <v>15.90790783178707</v>
       </c>
       <c r="C9">
-        <v>19.266341684679</v>
+        <v>10.85871366111224</v>
       </c>
       <c r="D9">
-        <v>8.326405152438712</v>
+        <v>6.230102655258841</v>
       </c>
       <c r="E9">
-        <v>34.72289099032508</v>
+        <v>18.5217318491883</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.020185807624864</v>
+        <v>3.600127145057569</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.05308030148766</v>
+        <v>16.02352121577687</v>
       </c>
       <c r="O9">
-        <v>20.16699055816858</v>
+        <v>21.15530716330676</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.29312238770574</v>
+        <v>16.9831606796559</v>
       </c>
       <c r="C10">
-        <v>20.98219351173324</v>
+        <v>11.73986517357016</v>
       </c>
       <c r="D10">
-        <v>9.132620007885814</v>
+        <v>6.452879297605894</v>
       </c>
       <c r="E10">
-        <v>38.35754431765444</v>
+        <v>20.17637832381546</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.005726054320831</v>
+        <v>3.595552896254112</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.639996494326395</v>
+        <v>15.91938070916921</v>
       </c>
       <c r="O10">
-        <v>21.68738328703441</v>
+        <v>21.33833388838116</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.37918428024761</v>
+        <v>17.45218223088731</v>
       </c>
       <c r="C11">
-        <v>21.7294253780858</v>
+        <v>12.11822433975327</v>
       </c>
       <c r="D11">
-        <v>9.484277448331854</v>
+        <v>6.553506457121886</v>
       </c>
       <c r="E11">
-        <v>39.96814425635187</v>
+        <v>20.8870772796232</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.999181488916023</v>
+        <v>3.593566077809811</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.453195302537196</v>
+        <v>15.87396714250416</v>
       </c>
       <c r="O11">
-        <v>22.53657865339987</v>
+        <v>21.4292197672453</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.78340114175197</v>
+        <v>17.62678780445525</v>
       </c>
       <c r="C12">
-        <v>22.00776834900452</v>
+        <v>12.25826899067452</v>
       </c>
       <c r="D12">
-        <v>9.61536263360691</v>
+        <v>6.591468065513268</v>
       </c>
       <c r="E12">
-        <v>40.57280462689504</v>
+        <v>21.15019811576933</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.996704183376043</v>
+        <v>3.592827150239774</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.382554572541281</v>
+        <v>15.85705049115966</v>
       </c>
       <c r="O12">
-        <v>22.87136736406356</v>
+        <v>21.46471386793368</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.69665501198617</v>
+        <v>17.58931847482856</v>
       </c>
       <c r="C13">
-        <v>21.94802450685365</v>
+        <v>12.22825155792136</v>
       </c>
       <c r="D13">
-        <v>9.587222047127286</v>
+        <v>6.583299371927011</v>
       </c>
       <c r="E13">
-        <v>40.44279699446172</v>
+        <v>21.09379686970399</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.997237738241787</v>
+        <v>3.592985695212442</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.397765080388719</v>
+        <v>15.86068134281278</v>
       </c>
       <c r="O13">
-        <v>22.79934674174293</v>
+        <v>21.45702198096397</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.41257918793032</v>
+        <v>17.46660788050926</v>
       </c>
       <c r="C14">
-        <v>21.75241626862513</v>
+        <v>12.12981065126924</v>
       </c>
       <c r="D14">
-        <v>9.495103034843526</v>
+        <v>6.556632687666879</v>
       </c>
       <c r="E14">
-        <v>40.01798924115398</v>
+        <v>20.90884454568253</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.998977683570085</v>
+        <v>3.593505016967777</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.447382089415349</v>
+        <v>15.87256978629588</v>
       </c>
       <c r="O14">
-        <v>22.56415938418536</v>
+        <v>21.43211840941423</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.23766437468425</v>
+        <v>17.39105010527932</v>
       </c>
       <c r="C15">
-        <v>21.63200486961075</v>
+        <v>12.06909196007603</v>
       </c>
       <c r="D15">
-        <v>9.438409476868145</v>
+        <v>6.54027868389707</v>
       </c>
       <c r="E15">
-        <v>39.75712970800254</v>
+        <v>20.79477486543317</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.0000434558883</v>
+        <v>3.593824864002857</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.47778457503844</v>
+        <v>15.87988828592248</v>
       </c>
       <c r="O15">
-        <v>22.41985455452237</v>
+        <v>21.4170039803921</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.22114437596516</v>
+        <v>16.95209439667316</v>
       </c>
       <c r="C16">
-        <v>20.93270391712284</v>
+        <v>11.71468615670428</v>
       </c>
       <c r="D16">
-        <v>9.109342171288382</v>
+        <v>6.446285139635616</v>
       </c>
       <c r="E16">
-        <v>38.25150149061017</v>
+        <v>20.12909018617719</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.006154112999101</v>
+        <v>3.595684624455787</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.652221511983614</v>
+        <v>15.92238791927816</v>
       </c>
       <c r="O16">
-        <v>21.64177586993051</v>
+        <v>21.33254616824333</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.58470048245598</v>
+        <v>16.67757273254012</v>
       </c>
       <c r="C17">
-        <v>20.49528682742928</v>
+        <v>11.49151153214598</v>
       </c>
       <c r="D17">
-        <v>8.903665698564284</v>
+        <v>6.388410186511368</v>
       </c>
       <c r="E17">
-        <v>37.31749020290284</v>
+        <v>19.7099800922242</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.00990877504658</v>
+        <v>3.596849550810268</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.759474744834332</v>
+        <v>15.94896116516624</v>
       </c>
       <c r="O17">
-        <v>21.24311496309129</v>
+        <v>21.28267450753444</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.21383498535508</v>
+        <v>16.51778698047372</v>
       </c>
       <c r="C18">
-        <v>20.240548102645</v>
+        <v>11.36103110470045</v>
       </c>
       <c r="D18">
-        <v>8.783939392326378</v>
+        <v>6.355057045568628</v>
       </c>
       <c r="E18">
-        <v>36.77617843630883</v>
+        <v>19.46496296017253</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.012071742977154</v>
+        <v>3.597528441218091</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.821272807000208</v>
+        <v>15.9644300065965</v>
       </c>
       <c r="O18">
-        <v>21.01466855350211</v>
+        <v>21.25470875299639</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.08743460596903</v>
+        <v>16.4633656378119</v>
       </c>
       <c r="C19">
-        <v>20.15375243704556</v>
+        <v>11.31648921593615</v>
       </c>
       <c r="D19">
-        <v>8.743154487636376</v>
+        <v>6.343754364932163</v>
       </c>
       <c r="E19">
-        <v>36.59217081457164</v>
+        <v>19.38132382938809</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.012804775705214</v>
+        <v>3.597759825362075</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.84221709475058</v>
+        <v>15.96969924199637</v>
       </c>
       <c r="O19">
-        <v>20.93746496533212</v>
+        <v>21.24536407551974</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.65294602297639</v>
+        <v>16.70699230446739</v>
       </c>
       <c r="C20">
-        <v>20.54217525870897</v>
+        <v>11.5154878808408</v>
       </c>
       <c r="D20">
-        <v>8.925707335859361</v>
+        <v>6.394578104665507</v>
       </c>
       <c r="E20">
-        <v>37.41733471801415</v>
+        <v>19.75500426050749</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.009508760339566</v>
+        <v>3.596724626505552</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.748046630014407</v>
+        <v>15.94611330156321</v>
       </c>
       <c r="O20">
-        <v>21.2854643061279</v>
+        <v>21.28790913661439</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.49620832161412</v>
+        <v>17.5027332354797</v>
       </c>
       <c r="C21">
-        <v>21.80999494383656</v>
+        <v>12.15881281925251</v>
       </c>
       <c r="D21">
-        <v>9.522216297525082</v>
+        <v>6.564469553930527</v>
       </c>
       <c r="E21">
-        <v>40.14289970996821</v>
+        <v>20.96333223222608</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.998466625851142</v>
+        <v>3.593352115558256</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.432806275958839</v>
+        <v>15.86907026140341</v>
       </c>
       <c r="O21">
-        <v>22.6332902780721</v>
+        <v>21.43940411027432</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.65992866994352</v>
+        <v>18.00525519707561</v>
       </c>
       <c r="C22">
-        <v>22.61177572686105</v>
+        <v>12.56042799264554</v>
       </c>
       <c r="D22">
-        <v>9.899995870243544</v>
+        <v>6.674648465542629</v>
       </c>
       <c r="E22">
-        <v>41.89421557933984</v>
+        <v>21.71805637447925</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.991253487588465</v>
+        <v>3.591226269702703</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.227309177777544</v>
+        <v>15.82035238828039</v>
       </c>
       <c r="O22">
-        <v>23.60442380849872</v>
+        <v>21.54468534580228</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.04248415525169</v>
+        <v>17.73868648240737</v>
       </c>
       <c r="C23">
-        <v>22.18623863840028</v>
+        <v>12.34780079954224</v>
       </c>
       <c r="D23">
-        <v>9.699439940680049</v>
+        <v>6.615935039677584</v>
       </c>
       <c r="E23">
-        <v>40.96190696109412</v>
+        <v>21.31843570215009</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.995104353946705</v>
+        <v>3.592353738231882</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.336960731683018</v>
+        <v>15.84620497154439</v>
       </c>
       <c r="O23">
-        <v>23.08703532478259</v>
+        <v>21.48792792519243</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.62210769921429</v>
+        <v>16.69369781113884</v>
       </c>
       <c r="C24">
-        <v>20.52098717146579</v>
+        <v>11.50465494639514</v>
       </c>
       <c r="D24">
-        <v>8.915746928725794</v>
+        <v>6.391789835125721</v>
       </c>
       <c r="E24">
-        <v>37.37220858633818</v>
+        <v>19.73466149922766</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.009689593120202</v>
+        <v>3.596781076248702</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.753212850098167</v>
+        <v>15.94740022396785</v>
       </c>
       <c r="O24">
-        <v>21.2663158419284</v>
+        <v>21.28554035982094</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.82702772481758</v>
+        <v>15.49494189167222</v>
       </c>
       <c r="C25">
-        <v>18.60391227311977</v>
+        <v>10.5142977182947</v>
       </c>
       <c r="D25">
-        <v>8.015571496638644</v>
+        <v>6.147712538416225</v>
       </c>
       <c r="E25">
-        <v>33.34102999620722</v>
+        <v>17.87490713031399</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.025562832635082</v>
+        <v>3.601895598056553</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.20657933042595</v>
+        <v>16.0636200984109</v>
       </c>
       <c r="O25">
-        <v>19.61490624151952</v>
+        <v>21.09477845081138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_228/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_228/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.55576705260431</v>
+        <v>23.60198455438355</v>
       </c>
       <c r="C2">
-        <v>9.715555350721269</v>
+        <v>17.0830869702137</v>
       </c>
       <c r="D2">
-        <v>5.967597785388032</v>
+        <v>7.302568370479954</v>
       </c>
       <c r="E2">
-        <v>16.53464518793436</v>
+        <v>30.20759099116839</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.605956699978702</v>
+        <v>2.037491246044133</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.15533835233212</v>
+        <v>10.54629345381439</v>
       </c>
       <c r="O2">
-        <v>20.97852255951449</v>
+        <v>18.42634515456966</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.8873474131362</v>
+        <v>21.98612928260015</v>
       </c>
       <c r="C3">
-        <v>9.131014552356973</v>
+        <v>15.98217779377616</v>
       </c>
       <c r="D3">
-        <v>5.846138528907759</v>
+        <v>6.786687912067898</v>
       </c>
       <c r="E3">
-        <v>15.59184432214095</v>
+        <v>27.96912117405645</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.608895072387722</v>
+        <v>2.04577608808218</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.2213662345871</v>
+        <v>10.78115860467417</v>
       </c>
       <c r="O3">
-        <v>20.91500924417518</v>
+        <v>17.63913522663221</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.46258790654218</v>
+        <v>20.93964729416821</v>
       </c>
       <c r="C4">
-        <v>8.750897233833163</v>
+        <v>15.27107356429011</v>
       </c>
       <c r="D4">
-        <v>5.772161414271669</v>
+        <v>6.453411615951111</v>
       </c>
       <c r="E4">
-        <v>14.9882413140507</v>
+        <v>26.53463436804092</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.610791680355224</v>
+        <v>2.050976649669582</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.26382801139703</v>
+        <v>10.92794177044326</v>
       </c>
       <c r="O4">
-        <v>20.88358147671162</v>
+        <v>17.16560002101739</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.28613472166723</v>
+        <v>20.49938219755855</v>
       </c>
       <c r="C5">
-        <v>8.59069028053313</v>
+        <v>14.97240406424576</v>
       </c>
       <c r="D5">
-        <v>5.742212253355198</v>
+        <v>6.313387302142102</v>
       </c>
       <c r="E5">
-        <v>14.73632155765062</v>
+        <v>25.93451323761573</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.611587895181681</v>
+        <v>2.053126454658655</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.28161604525777</v>
+        <v>10.9884440702767</v>
       </c>
       <c r="O5">
-        <v>20.87268113028909</v>
+        <v>16.97525235791542</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.25663978220878</v>
+        <v>20.42543788397695</v>
       </c>
       <c r="C6">
-        <v>8.563768524901469</v>
+        <v>14.92227222541608</v>
       </c>
       <c r="D6">
-        <v>5.737252486834846</v>
+        <v>6.289880406361853</v>
       </c>
       <c r="E6">
-        <v>14.69414023316585</v>
+        <v>25.83391143799382</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.611721517808098</v>
+        <v>2.053485326668985</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.28459904596025</v>
+        <v>10.99853303413573</v>
       </c>
       <c r="O6">
-        <v>20.87098633863554</v>
+        <v>16.94380852644414</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.46022144977527</v>
+        <v>20.93376585515463</v>
       </c>
       <c r="C7">
-        <v>8.748758069028357</v>
+        <v>15.26708164789832</v>
       </c>
       <c r="D7">
-        <v>5.771756649678003</v>
+        <v>6.451540324200049</v>
       </c>
       <c r="E7">
-        <v>14.98486751869946</v>
+        <v>26.52660448520299</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.610802323802448</v>
+        <v>2.051005516582079</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.26406594315362</v>
+        <v>10.9287548935214</v>
       </c>
       <c r="O7">
-        <v>20.88342674846652</v>
+        <v>17.16302209114412</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.32841151812921</v>
+        <v>23.05602193197787</v>
       </c>
       <c r="C8">
-        <v>9.518420395404013</v>
+        <v>16.71074956634888</v>
       </c>
       <c r="D8">
-        <v>5.925621914877119</v>
+        <v>7.128087292415625</v>
       </c>
       <c r="E8">
-        <v>16.21484378950503</v>
+        <v>29.44794593524027</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.606950718937489</v>
+        <v>2.040325505643817</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.17770716320013</v>
+        <v>10.62676500999322</v>
       </c>
       <c r="O8">
-        <v>20.95505488076402</v>
+        <v>18.15296245262711</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.90790783178707</v>
+        <v>26.79397164794128</v>
       </c>
       <c r="C9">
-        <v>10.85871366111224</v>
+        <v>19.26634168467903</v>
       </c>
       <c r="D9">
-        <v>6.230102655258841</v>
+        <v>8.326405152438728</v>
       </c>
       <c r="E9">
-        <v>18.5217318491883</v>
+        <v>34.72289099032506</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.600127145057569</v>
+        <v>2.020185807624997</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.02352121577687</v>
+        <v>10.05308030148756</v>
       </c>
       <c r="O9">
-        <v>21.15530716330676</v>
+        <v>20.16699055816857</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.9831606796559</v>
+        <v>29.29312238770565</v>
       </c>
       <c r="C10">
-        <v>11.73986517357016</v>
+        <v>20.98219351173318</v>
       </c>
       <c r="D10">
-        <v>6.452879297605894</v>
+        <v>9.132620007885816</v>
       </c>
       <c r="E10">
-        <v>20.17637832381546</v>
+        <v>38.35754431765429</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.595552896254112</v>
+        <v>2.005726054320563</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.91938070916921</v>
+        <v>9.639996494326493</v>
       </c>
       <c r="O10">
-        <v>21.33833388838116</v>
+        <v>21.68738328703442</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.45218223088731</v>
+        <v>30.37918428024753</v>
       </c>
       <c r="C11">
-        <v>12.11822433975327</v>
+        <v>21.72942537808574</v>
       </c>
       <c r="D11">
-        <v>6.553506457121886</v>
+        <v>9.484277448331783</v>
       </c>
       <c r="E11">
-        <v>20.8870772796232</v>
+        <v>39.96814425635183</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.593566077809811</v>
+        <v>1.999181488916154</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.87396714250416</v>
+        <v>9.453195302537232</v>
       </c>
       <c r="O11">
-        <v>21.4292197672453</v>
+        <v>22.5365786533998</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.62678780445525</v>
+        <v>30.78340114175205</v>
       </c>
       <c r="C12">
-        <v>12.25826899067452</v>
+        <v>22.0077683490045</v>
       </c>
       <c r="D12">
-        <v>6.591468065513268</v>
+        <v>9.615362633606978</v>
       </c>
       <c r="E12">
-        <v>21.15019811576933</v>
+        <v>40.57280462689506</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.592827150239774</v>
+        <v>1.996704183375776</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.85705049115966</v>
+        <v>9.382554572541284</v>
       </c>
       <c r="O12">
-        <v>21.46471386793368</v>
+        <v>22.87136736406359</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.58931847482856</v>
+        <v>30.69665501198612</v>
       </c>
       <c r="C13">
-        <v>12.22825155792136</v>
+        <v>21.94802450685363</v>
       </c>
       <c r="D13">
-        <v>6.583299371927011</v>
+        <v>9.587222047127272</v>
       </c>
       <c r="E13">
-        <v>21.09379686970399</v>
+        <v>40.44279699446173</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.592985695212442</v>
+        <v>1.997237738241519</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.86068134281278</v>
+        <v>9.397765080388753</v>
       </c>
       <c r="O13">
-        <v>21.45702198096397</v>
+        <v>22.79934674174289</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.46660788050926</v>
+        <v>30.41257918793024</v>
       </c>
       <c r="C14">
-        <v>12.12981065126924</v>
+        <v>21.75241626862503</v>
       </c>
       <c r="D14">
-        <v>6.556632687666879</v>
+        <v>9.495103034843464</v>
       </c>
       <c r="E14">
-        <v>20.90884454568253</v>
+        <v>40.01798924115391</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.593505016967777</v>
+        <v>1.998977683570218</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.87256978629588</v>
+        <v>9.447382089415454</v>
       </c>
       <c r="O14">
-        <v>21.43211840941423</v>
+        <v>22.56415938418523</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.39105010527932</v>
+        <v>30.23766437468426</v>
       </c>
       <c r="C15">
-        <v>12.06909196007603</v>
+        <v>21.63200486961088</v>
       </c>
       <c r="D15">
-        <v>6.54027868389707</v>
+        <v>9.43840947686803</v>
       </c>
       <c r="E15">
-        <v>20.79477486543317</v>
+        <v>39.75712970800257</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.593824864002857</v>
+        <v>2.000043455888168</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.87988828592248</v>
+        <v>9.477784575038568</v>
       </c>
       <c r="O15">
-        <v>21.4170039803921</v>
+        <v>22.41985455452235</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.95209439667316</v>
+        <v>29.2211443759651</v>
       </c>
       <c r="C16">
-        <v>11.71468615670428</v>
+        <v>20.93270391712279</v>
       </c>
       <c r="D16">
-        <v>6.446285139635616</v>
+        <v>9.109342171288349</v>
       </c>
       <c r="E16">
-        <v>20.12909018617719</v>
+        <v>38.25150149061002</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.595684624455787</v>
+        <v>2.006154112999233</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.92238791927816</v>
+        <v>9.652221511983713</v>
       </c>
       <c r="O16">
-        <v>21.33254616824333</v>
+        <v>21.64177586993052</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.67757273254012</v>
+        <v>28.58470048245603</v>
       </c>
       <c r="C17">
-        <v>11.49151153214598</v>
+        <v>20.49528682742928</v>
       </c>
       <c r="D17">
-        <v>6.388410186511368</v>
+        <v>8.903665698564197</v>
       </c>
       <c r="E17">
-        <v>19.7099800922242</v>
+        <v>37.31749020290285</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.596849550810268</v>
+        <v>2.009908775046445</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.94896116516624</v>
+        <v>9.759474744834328</v>
       </c>
       <c r="O17">
-        <v>21.28267450753444</v>
+        <v>21.24311496309133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.51778698047372</v>
+        <v>28.21383498535504</v>
       </c>
       <c r="C18">
-        <v>11.36103110470045</v>
+        <v>20.240548102645</v>
       </c>
       <c r="D18">
-        <v>6.355057045568628</v>
+        <v>8.783939392326333</v>
       </c>
       <c r="E18">
-        <v>19.46496296017253</v>
+        <v>36.77617843630888</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.597528441218091</v>
+        <v>2.012071742977021</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.9644300065965</v>
+        <v>9.821272807000215</v>
       </c>
       <c r="O18">
-        <v>21.25470875299639</v>
+        <v>21.01466855350206</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.4633656378119</v>
+        <v>28.08743460596908</v>
       </c>
       <c r="C19">
-        <v>11.31648921593615</v>
+        <v>20.15375243704544</v>
       </c>
       <c r="D19">
-        <v>6.343754364932163</v>
+        <v>8.743154487636415</v>
       </c>
       <c r="E19">
-        <v>19.38132382938809</v>
+        <v>36.59217081457165</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.597759825362075</v>
+        <v>2.012804775705213</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.96969924199637</v>
+        <v>9.842217094750584</v>
       </c>
       <c r="O19">
-        <v>21.24536407551974</v>
+        <v>20.93746496533211</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.70699230446739</v>
+        <v>28.65294602297625</v>
       </c>
       <c r="C20">
-        <v>11.5154878808408</v>
+        <v>20.54217525870915</v>
       </c>
       <c r="D20">
-        <v>6.394578104665507</v>
+        <v>8.925707335859302</v>
       </c>
       <c r="E20">
-        <v>19.75500426050749</v>
+        <v>37.41733471801408</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.596724626505552</v>
+        <v>2.009508760339568</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.94611330156321</v>
+        <v>9.748046630014445</v>
       </c>
       <c r="O20">
-        <v>21.28790913661439</v>
+        <v>21.28546430612784</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.5027332354797</v>
+        <v>30.49620832161402</v>
       </c>
       <c r="C21">
-        <v>12.15881281925251</v>
+        <v>21.80999494383647</v>
       </c>
       <c r="D21">
-        <v>6.564469553930527</v>
+        <v>9.522216297525105</v>
       </c>
       <c r="E21">
-        <v>20.96333223222608</v>
+        <v>40.14289970996815</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.593352115558256</v>
+        <v>1.99846662585141</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.86907026140341</v>
+        <v>9.432806275958903</v>
       </c>
       <c r="O21">
-        <v>21.43940411027432</v>
+        <v>22.63329027807203</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.00525519707561</v>
+        <v>31.65992866994346</v>
       </c>
       <c r="C22">
-        <v>12.56042799264554</v>
+        <v>22.61177572686108</v>
       </c>
       <c r="D22">
-        <v>6.674648465542629</v>
+        <v>9.899995870243512</v>
       </c>
       <c r="E22">
-        <v>21.71805637447925</v>
+        <v>41.8942155793398</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.591226269702703</v>
+        <v>1.991253487588333</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.82035238828039</v>
+        <v>9.227309177777579</v>
       </c>
       <c r="O22">
-        <v>21.54468534580228</v>
+        <v>23.60442380849869</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.73868648240737</v>
+        <v>31.04248415525171</v>
       </c>
       <c r="C23">
-        <v>12.34780079954224</v>
+        <v>22.18623863840033</v>
       </c>
       <c r="D23">
-        <v>6.615935039677584</v>
+        <v>9.699439940680049</v>
       </c>
       <c r="E23">
-        <v>21.31843570215009</v>
+        <v>40.96190696109414</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.592353738231882</v>
+        <v>1.995104353947106</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.84620497154439</v>
+        <v>9.336960731683018</v>
       </c>
       <c r="O23">
-        <v>21.48792792519243</v>
+        <v>23.08703532478262</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.69369781113884</v>
+        <v>28.62210769921429</v>
       </c>
       <c r="C24">
-        <v>11.50465494639514</v>
+        <v>20.52098717146582</v>
       </c>
       <c r="D24">
-        <v>6.391789835125721</v>
+        <v>8.915746928725717</v>
       </c>
       <c r="E24">
-        <v>19.73466149922766</v>
+        <v>37.37220858633833</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.596781076248702</v>
+        <v>2.009689593120203</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.94740022396785</v>
+        <v>9.753212850098198</v>
       </c>
       <c r="O24">
-        <v>21.28554035982094</v>
+        <v>21.26631584192843</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.49494189167222</v>
+        <v>25.82702772481753</v>
       </c>
       <c r="C25">
-        <v>10.5142977182947</v>
+        <v>18.60391227311963</v>
       </c>
       <c r="D25">
-        <v>6.147712538416225</v>
+        <v>8.015571496638636</v>
       </c>
       <c r="E25">
-        <v>17.87490713031399</v>
+        <v>33.34102999620714</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.601895598056553</v>
+        <v>2.025562832635081</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.0636200984109</v>
+        <v>10.20657933042595</v>
       </c>
       <c r="O25">
-        <v>21.09477845081138</v>
+        <v>19.61490624151958</v>
       </c>
     </row>
   </sheetData>
